--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>815731.5850137133</v>
+        <v>853202.7713592738</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367739</v>
+        <v>6542240.186367736</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.8448976285503</v>
       </c>
       <c r="W2" t="n">
-        <v>232.2791855053265</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>83.54777021721274</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>118.2297801110689</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>60.29267962023754</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>79.63579206135137</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>54.68264738641786</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>169.9075706497905</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813366</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>109.8573765258292</v>
       </c>
       <c r="U6" t="n">
-        <v>190.2606141514344</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>198.7613461286682</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2451165574754</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>224.0695427661832</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>215.0629032469097</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>152.4003329335829</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,13 +1347,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>8.86785804738126</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.2770776263195</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1429,16 +1429,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>303.3585789652474</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>313.7825241382121</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>134.2536528899302</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>164.2540732785629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>8.812699961998566</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>228.187353485371</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>130.0949319705737</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>217.8670799781931</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>14.3125920883927</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680972</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.2222221732965</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.19691857157341</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>77.92383158564773</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>152.6250124446331</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>91.08064078754713</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>65.72456219185491</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>81.72898226868531</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>191.6864637953676</v>
+        <v>299.2587842582826</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.20584125154398</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>74.84971402118425</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>342.4688093135639</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>106.7473372375333</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>126.5388824951704</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>206.752176810249</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>92.49190324064729</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>223.5632862366941</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>354.666032387729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>77.42639794035743</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3508,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>265.9318059937546</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>33.36619356526333</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.2718271853743</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>205.8417908649002</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>24.27311936183922</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>378.1747976530321</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>27.19292662790608</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>69.96969900783328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>242.7840558312776</v>
+        <v>315.4848458704581</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>69.60662835550573</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>35.19569619649968</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016544</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4439,22 +4439,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>394.7584874425332</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460803</v>
+        <v>140.5211307143315</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6145548405475</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.8542560755936</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.1351228789782</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>325.1351228789782</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>993.953823419926</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U4" t="n">
-        <v>993.953823419926</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="V4" t="n">
-        <v>993.953823419926</v>
+        <v>367.9149609686635</v>
       </c>
       <c r="W4" t="n">
-        <v>727.5761668527481</v>
+        <v>101.5373044014855</v>
       </c>
       <c r="X4" t="n">
-        <v>727.5761668527481</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.783587709218</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.9193875963521</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9193875963521</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="D5" t="n">
-        <v>419.6536889896016</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="E5" t="n">
-        <v>33.8654363913573</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="F5" t="n">
-        <v>33.8654363913573</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.4604468780279</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818687</v>
+        <v>270.9975490818694</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373977</v>
+        <v>509.5409587373988</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176472</v>
+        <v>806.6359018176486</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058968</v>
+        <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836695</v>
+        <v>1389.251120836698</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921687</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961954</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="T5" t="n">
-        <v>1339.682528309326</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="U5" t="n">
-        <v>1339.682528309326</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="V5" t="n">
-        <v>1339.682528309326</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.682528309326</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="X5" t="n">
-        <v>1168.058719572164</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.9193875963521</v>
+        <v>1247.897490232038</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.0248883123061</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="C6" t="n">
-        <v>488.5718590311791</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="D6" t="n">
-        <v>339.6374493699278</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644723</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>33.8654363913573</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>33.8654363913573</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>33.8654363913573</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324432</v>
+        <v>70.230161758772</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650495</v>
+        <v>453.9778756130302</v>
       </c>
       <c r="L6" t="n">
-        <v>600.487771208096</v>
+        <v>664.2464887357653</v>
       </c>
       <c r="M6" t="n">
-        <v>865.218193164837</v>
+        <v>928.9769106925066</v>
       </c>
       <c r="N6" t="n">
-        <v>1151.363886576565</v>
+        <v>1215.122604104235</v>
       </c>
       <c r="O6" t="n">
-        <v>1390.911497750762</v>
+        <v>1454.670215278432</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.595225892899</v>
+        <v>1627.595225892901</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567865</v>
+        <v>1582.30477257208</v>
       </c>
       <c r="U6" t="n">
-        <v>1501.089381031062</v>
+        <v>1354.188565227565</v>
       </c>
       <c r="V6" t="n">
-        <v>1501.089381031062</v>
+        <v>1119.036456995822</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.852024302861</v>
+        <v>864.7991002676204</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.000524097328</v>
+        <v>656.9476000620875</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.2402253323742</v>
+        <v>449.1873012971336</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="E7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="F7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="G7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="H7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="I7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="J7" t="n">
-        <v>36.2851213365219</v>
+        <v>36.28512133652202</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128597</v>
+        <v>170.0982437128599</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119585</v>
+        <v>396.8594047119589</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191535</v>
+        <v>646.3363778191541</v>
       </c>
       <c r="N7" t="n">
-        <v>895.315962536165</v>
+        <v>895.3159625361658</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.27261202138</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580466</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397014</v>
+        <v>1093.436447486385</v>
       </c>
       <c r="T7" t="n">
-        <v>1095.093126903409</v>
+        <v>1093.436447486385</v>
       </c>
       <c r="U7" t="n">
-        <v>805.9566455322221</v>
+        <v>804.299966115198</v>
       </c>
       <c r="V7" t="n">
-        <v>551.2721573263352</v>
+        <v>549.6154779093112</v>
       </c>
       <c r="W7" t="n">
-        <v>261.8549872893747</v>
+        <v>260.1983078723505</v>
       </c>
       <c r="X7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1346.511635257854</v>
+        <v>713.5716291771832</v>
       </c>
       <c r="C8" t="n">
-        <v>1129.276379452894</v>
+        <v>713.5716291771832</v>
       </c>
       <c r="D8" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E8" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1490.310801217117</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>1490.310801217117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1733.111475321975</v>
+        <v>1100.171469241305</v>
       </c>
     </row>
     <row r="9">
@@ -4865,49 +4865,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004313</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963533</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1105.298052573584</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>850.6135643676972</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
         <v>1278.358723975039</v>
@@ -5032,61 +5032,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2765.652537847403</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2765.652537847403</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X11" t="n">
-        <v>2392.186779586323</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658018</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V13" t="n">
-        <v>1250.51186045178</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W13" t="n">
-        <v>1250.51186045178</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.51186045178</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.71928130825</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W14" t="n">
-        <v>2400.229512818681</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2026.763754557601</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1636.624422581789</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5372,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>661.9578014444411</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C16" t="n">
-        <v>661.9578014444411</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D16" t="n">
-        <v>511.8411620321053</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4321398396066</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V16" t="n">
-        <v>1361.012987209659</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W16" t="n">
-        <v>1071.595817172698</v>
+        <v>1425.710449119117</v>
       </c>
       <c r="X16" t="n">
-        <v>843.6062662746808</v>
+        <v>1197.720898221099</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.6062662746808</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694472</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.60683175406</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>764.3411331473096</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>378.5528805490654</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995485</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734405</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758593</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.59460854119</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.59460854119</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.605057643173</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
         <v>892.5704713767946</v>
@@ -5743,61 +5743,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>980.7518458718749</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="C22" t="n">
-        <v>811.8156629439681</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="D22" t="n">
-        <v>661.6990235316323</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="E22" t="n">
-        <v>513.7859299492392</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="F22" t="n">
-        <v>366.8959824513288</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>255.8384408739867</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882605</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X22" t="n">
-        <v>1383.192889845645</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.400310702115</v>
+        <v>423.5412774992677</v>
       </c>
     </row>
     <row r="23">
@@ -5980,61 +5980,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610488</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046014</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676408</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696235</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8553933260934</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1892.184635123826</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.222118183415</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.956419576664</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
@@ -6226,7 +6226,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6238,7 +6238,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W26" t="n">
-        <v>2862.546497866151</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X26" t="n">
-        <v>2668.92380716376</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y26" t="n">
-        <v>2278.784475187948</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.8928126690271</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C28" t="n">
-        <v>241.8928126690271</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D28" t="n">
-        <v>241.8928126690271</v>
+        <v>181.169050396912</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>181.169050396912</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>181.169050396912</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6384,16 +6384,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>872.3234075408143</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X28" t="n">
-        <v>644.3338566427969</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.5412774992668</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218339</v>
@@ -6469,7 +6469,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6478,7 +6478,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
@@ -6493,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W29" t="n">
-        <v>2513.328941997114</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="X29" t="n">
-        <v>2513.328941997114</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y29" t="n">
-        <v>2123.189610021302</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218339</v>
@@ -6563,31 +6563,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>826.5851666348717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C31" t="n">
-        <v>657.6489837069648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D31" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E31" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218339</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1819.468954919267</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.468954919267</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1564.78446671338</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.367296676419</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.377745778402</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>826.5851666348717</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6715,7 +6715,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W32" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X32" t="n">
-        <v>2824.323010322666</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y32" t="n">
-        <v>2434.183678346854</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6800,7 +6800,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.577300874914</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C34" t="n">
-        <v>327.6411179470072</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D34" t="n">
-        <v>327.6411179470072</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E34" t="n">
-        <v>327.6411179470072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>327.6411179470072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>159.9382813217261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6894,16 +6894,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1416.425065783662</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1127.007895746701</v>
+        <v>935.919076328589</v>
       </c>
       <c r="X34" t="n">
-        <v>899.0183448486839</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y34" t="n">
-        <v>678.2257657051538</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473101</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>764.3411331473101</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
         <v>406.0926155839475</v>
@@ -6937,19 +6937,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734406</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758594</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7004,7 +7004,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
@@ -7016,34 +7016,34 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>403.1511359853714</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C40" t="n">
-        <v>234.2149530574645</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574645</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.101767768476</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>1322.998900894119</v>
+        <v>1497.606931784382</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.998900894119</v>
+        <v>1242.922443578495</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.581730857159</v>
+        <v>953.5052735415343</v>
       </c>
       <c r="X40" t="n">
-        <v>805.5921799591413</v>
+        <v>953.5052735415343</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.7996008156111</v>
+        <v>732.7126943980041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1969.423143692379</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C41" t="n">
-        <v>1600.460626751968</v>
+        <v>1221.84501029801</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>863.5793116912598</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>863.5793116912598</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993393</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W41" t="n">
-        <v>3119.628073993393</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="X41" t="n">
-        <v>2746.162315732313</v>
+        <v>2367.546699278355</v>
       </c>
       <c r="Y41" t="n">
-        <v>2356.022983756501</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158134</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1154.062717966212</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>864.6455479292516</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X43" t="n">
-        <v>636.6559970312343</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8634178877041</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.03510695555</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.072590015139</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="D44" t="n">
-        <v>1137.806891408388</v>
+        <v>1253.238931622637</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609169</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265598</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995484</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X44" t="n">
-        <v>2641.774278995484</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.634947019672</v>
+        <v>1998.104470293509</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>452.6479724696226</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>283.7117895417157</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>283.7117895417157</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7851,7 +7851,7 @@
         <v>452.6479724696226</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.6479724696226</v>
+        <v>417.09676419033</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157956</v>
+        <v>25.82445471157942</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.86292434901769</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>210.9254163841533</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>64.40274497744264</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688991</v>
+        <v>45.32591189688982</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>240.4465442417444</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,7 +22561,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -22603,13 +22603,13 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>82.90736084158459</v>
       </c>
       <c r="W2" t="n">
-        <v>116.9617832120865</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22643,10 +22643,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>15.93155005399701</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>87.54320509240854</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22722,13 +22722,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>162.9216662593283</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>146.0738633276858</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539871</v>
+        <v>94.01296546539862</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>273.0696110837171</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>199.8235300286786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253652</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813371</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>83.79245028218531</v>
       </c>
       <c r="U6" t="n">
-        <v>35.57443111963605</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>23.39440737673328</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.640112622853906</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>150.2099885240979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>196.8406357838302</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3592960738193</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>24.39367950488753</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>35.45844457920094</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>12.18030975663893</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>87.88357004526509</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>345.8703416586844</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>121.053615232042</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>16.33903067599547</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>68.65591835839791</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>392.5634536533187</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23791,10 +23791,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>181.1251564493158</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.60975800864075</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3877347805214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>308.3141070704058</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>13.40079581439511</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>53.67437412677366</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>320.5133764641987</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>64.70498037788386</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>178.0446368831014</v>
+        <v>70.47231642018642</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>118.2281213950252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>52.51544363394693</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>307.8841276422963</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.772159403849116</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>112.8016120386359</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>222.7020862222426</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>162.97892386822</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>52.26311167367349</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>62.9597120998969</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>52.21001335398245</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>173.5687740185446</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>83.30916272365846</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>336.3649071132057</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,22 +25599,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>97.27712209079485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>80.37004734071269</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>330.4099222588437</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>28.70124808867934</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>140.0538944707218</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>182.1679443159947</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>139.1463142409842</v>
+        <v>66.44552420180366</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>76.82733429106344</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>183.3889571555951</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>619436.9976607276</v>
+        <v>619436.9976607279</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239161</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.1640239162</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>843372.164023916</v>
+        <v>843372.1640239159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>843372.1640239161</v>
+        <v>843372.164023916</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214164.910256968</v>
+        <v>214164.9102569681</v>
       </c>
       <c r="C2" t="n">
         <v>259834.9292344155</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.2120190238</v>
+        <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194665</v>
@@ -26328,16 +26328,16 @@
         <v>358046.9539194665</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="I2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
-      </c>
       <c r="J2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="K2" t="n">
         <v>358046.9539194666</v>
@@ -26346,10 +26346,10 @@
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="O2" t="n">
         <v>358046.9539194666</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739495</v>
+        <v>176672.6241739501</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381908</v>
+        <v>223886.3093819074</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.154419114</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640784</v>
+        <v>41076.98154640782</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946837</v>
+        <v>54988.29121946818</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11859.77526465973</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="C4" t="n">
         <v>13508.12565950901</v>
       </c>
       <c r="D4" t="n">
-        <v>16175.59256035159</v>
+        <v>16175.59256035156</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>8550.51517206688</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="I4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="J4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="K4" t="n">
+        <v>8550.515172066876</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8550.515172066873</v>
+      </c>
+      <c r="M4" t="n">
         <v>8550.515172066862</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8550.515172066862</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8550.515172066873</v>
       </c>
       <c r="N4" t="n">
         <v>8550.515172066862</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.8716792311</v>
+        <v>75746.87167923116</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26499,19 +26499,19 @@
         <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551158.3639899022</v>
+        <v>-541863.4203218261</v>
       </c>
       <c r="C6" t="n">
-        <v>-14245.64465657574</v>
+        <v>-6907.987516104944</v>
       </c>
       <c r="D6" t="n">
-        <v>-16956.92508497214</v>
+        <v>-12252.20863526879</v>
       </c>
       <c r="E6" t="n">
-        <v>89640.92907075501</v>
+        <v>92769.49943900967</v>
       </c>
       <c r="F6" t="n">
-        <v>271713.9088879453</v>
+        <v>274842.4792562003</v>
       </c>
       <c r="G6" t="n">
-        <v>271713.9088879451</v>
+        <v>274842.4792562004</v>
       </c>
       <c r="H6" t="n">
-        <v>271713.9088879456</v>
+        <v>274842.4792562001</v>
       </c>
       <c r="I6" t="n">
-        <v>271713.9088879453</v>
+        <v>274842.4792562006</v>
       </c>
       <c r="J6" t="n">
-        <v>202714.7544688313</v>
+        <v>205843.3248370864</v>
       </c>
       <c r="K6" t="n">
-        <v>230636.9273415376</v>
+        <v>233765.4977097925</v>
       </c>
       <c r="L6" t="n">
-        <v>216725.617668477</v>
+        <v>219854.1880367322</v>
       </c>
       <c r="M6" t="n">
-        <v>224161.6430945306</v>
+        <v>227290.2134627854</v>
       </c>
       <c r="N6" t="n">
-        <v>271713.9088879454</v>
+        <v>274842.4792562003</v>
       </c>
       <c r="O6" t="n">
-        <v>271713.9088879454</v>
+        <v>274842.4792562004</v>
       </c>
       <c r="P6" t="n">
-        <v>271713.9088879455</v>
+        <v>274842.4792562005</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908057</v>
+        <v>751.4467899908062</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919662</v>
+        <v>423.3179548919668</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213275</v>
+        <v>137.3917762213279</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267336</v>
+        <v>182.6181021267331</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.60407489046</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080727</v>
+        <v>217.2668772080719</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904597</v>
+        <v>159.6040748904603</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080729</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.60407489046</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080727</v>
+        <v>217.2668772080719</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053488</v>
+        <v>3.02089161805349</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339029</v>
+        <v>30.93770628339031</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050072</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677675</v>
+        <v>256.3943999677676</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599717</v>
+        <v>384.268742159972</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159762</v>
+        <v>476.7193540159765</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285348</v>
+        <v>530.4421353285353</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383294</v>
+        <v>539.0252436383298</v>
       </c>
       <c r="O5" t="n">
-        <v>508.98625261131</v>
+        <v>508.9862526113104</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906145</v>
+        <v>434.4079907906147</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190738</v>
+        <v>326.2223097190741</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025527</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639392</v>
+        <v>68.83856774639398</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802915</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444279</v>
+        <v>0.2416713294442792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546261</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328137</v>
+        <v>55.64959718328141</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433204</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499197</v>
+        <v>261.00015534992</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876871</v>
+        <v>350.9469182876874</v>
       </c>
       <c r="M6" t="n">
-        <v>409.538500544989</v>
+        <v>409.5385005449893</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345735</v>
+        <v>420.3777660345738</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587852</v>
+        <v>384.5635284587855</v>
       </c>
       <c r="P6" t="n">
-        <v>308.646135307733</v>
+        <v>308.6461353077332</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970982</v>
+        <v>206.3217676970984</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633075</v>
+        <v>30.02242599633078</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807077</v>
+        <v>6.514901886807082</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950633</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720632</v>
+        <v>40.75058985720635</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390975</v>
+        <v>95.80330632390982</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029917</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165514</v>
+        <v>201.4616525165516</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706798</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379547</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488041</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.889313017011</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
         <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843481</v>
+        <v>60.92878398843486</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544875</v>
+        <v>23.61513928544877</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879976</v>
+        <v>5.789835922879981</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548915</v>
+        <v>0.07391279901548921</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34210,13 +34210,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108118</v>
+        <v>75.34849544108135</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149911</v>
+        <v>164.1788911149914</v>
       </c>
       <c r="L5" t="n">
-        <v>240.952939045989</v>
+        <v>240.9529390459893</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012621</v>
+        <v>300.0959021012626</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417384</v>
+        <v>309.6121800417389</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896232</v>
+        <v>278.8880411896237</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353449</v>
+        <v>203.1749950353452</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446243</v>
+        <v>103.9166198446246</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665356</v>
+        <v>36.73204582567136</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755607</v>
+        <v>387.6239533881396</v>
       </c>
       <c r="L6" t="n">
-        <v>423.3179548919662</v>
+        <v>212.3925385078132</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229707</v>
+        <v>267.404466622971</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512402</v>
+        <v>289.0360539512404</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143408</v>
+        <v>241.9672840143411</v>
       </c>
       <c r="P6" t="n">
-        <v>239.0744728708454</v>
+        <v>174.671727893403</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107669</v>
+        <v>66.33999361107686</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236977</v>
+        <v>2.444126207237048</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771088</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768677</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325204</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171833</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628438</v>
+        <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819045</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691727</v>
+        <v>27.30642203691735</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>538.1269048795946</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
